--- a/공유폴더/계산서파일/세금계산서_콩쥐하이텍.xlsx
+++ b/공유폴더/계산서파일/세금계산서_콩쥐하이텍.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkj63\OneDrive\바탕 화면\소스코드\startcoding\startcoding_renewal\python_excel\02.폴더및파일관리\taxbill_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dq\diquest\study\inflearn\startcoding-python-excel\공유폴더\계산서파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ABF72B2-B524-47F1-9106-45057B37BE6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6359008C-0F20-4723-AC2B-F44B6E48BBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41745" yWindow="7965" windowWidth="11955" windowHeight="4875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7095" yWindow="6885" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="자료입력페이지" sheetId="1" r:id="rId1"/>
@@ -2481,6 +2481,37 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2489,16 +2520,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2507,162 +2531,224 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="90" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="120" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="118" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="119" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="121" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="122" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2670,16 +2756,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="80" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="79" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2687,219 +2772,134 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="123" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="124" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="128" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="125" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="116" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="127" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="129" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="130" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="78" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="10" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="131" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="132" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="115" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="117" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="110" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="105" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="112" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="113" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="114" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="102" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="103" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="104" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="109" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="10" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="100" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="108" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="111" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="107" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="106" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="99" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="101" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3211,50 +3211,50 @@
       <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.9140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.4140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="1" customWidth="1"/>
-    <col min="10" max="257" width="8.9140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="257" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A1" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-    </row>
-    <row r="2" spans="1:10" ht="14" customHeight="1"/>
-    <row r="3" spans="1:10" ht="17.5" customHeight="1">
-      <c r="B3" s="88" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.1" customHeight="1"/>
+    <row r="3" spans="1:10" ht="17.45" customHeight="1">
+      <c r="B3" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="89"/>
+      <c r="C3" s="85"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="89"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="17.149999999999999" customHeight="1">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3268,109 +3268,109 @@
       <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="103"/>
-      <c r="E5" s="104"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="104"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="100" t="s">
+      <c r="C6" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="91"/>
       <c r="F6" s="2"/>
       <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="100" t="s">
+      <c r="H6" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="95"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="95"/>
+      <c r="I7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1">
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="95"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="2"/>
       <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="95"/>
+      <c r="I8" s="91"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1">
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="91"/>
       <c r="F9" s="2"/>
       <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="93" t="s">
+      <c r="H9" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="95"/>
+      <c r="I9" s="91"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1">
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="2"/>
       <c r="G10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="93" t="s">
+      <c r="H10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="95"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="B11" s="2"/>
@@ -3381,14 +3381,14 @@
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="98"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.5" customHeight="1">
-      <c r="B12" s="88" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="95"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.45" customHeight="1">
+      <c r="B12" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="89"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -3401,28 +3401,28 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="90" t="s">
+      <c r="F13" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-    </row>
-    <row r="14" spans="1:10" ht="17.149999999999999" customHeight="1">
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="91">
-        <v>44927</v>
-      </c>
-      <c r="D14" s="84"/>
+      <c r="C14" s="103">
+        <v>47515</v>
+      </c>
+      <c r="D14" s="99"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:10" ht="17.149999999999999" customHeight="1">
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="B15" s="8"/>
       <c r="C15" s="9" t="s">
         <v>24</v>
@@ -3446,7 +3446,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="17.149999999999999" customHeight="1">
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="17" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="18" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="19" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>36</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="20" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>37</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="21" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B21" s="12" t="s">
         <v>38</v>
       </c>
@@ -3595,16 +3595,16 @@
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="2:9" ht="21" customHeight="1">
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="89"/>
+      <c r="C23" s="85"/>
       <c r="I23" s="33"/>
     </row>
-    <row r="24" spans="2:9" ht="17.149999999999999" customHeight="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
+    <row r="24" spans="2:9" ht="17.100000000000001" customHeight="1">
+      <c r="B24" s="104"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1">
@@ -3631,12 +3631,12 @@
       <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="84"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="99"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
       <c r="I26" s="39"/>
@@ -3645,37 +3645,37 @@
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
     </row>
-    <row r="28" spans="2:9" ht="17.149999999999999" customHeight="1"/>
-    <row r="29" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="28" spans="2:9" ht="17.100000000000001" customHeight="1"/>
+    <row r="29" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="B29" s="33"/>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="41"/>
       <c r="I29" s="41"/>
     </row>
-    <row r="30" spans="2:9" ht="17.149999999999999" customHeight="1">
+    <row r="30" spans="2:9" ht="17.100000000000001" customHeight="1">
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
     </row>
     <row r="31" spans="2:9" ht="21" customHeight="1">
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-    </row>
-    <row r="32" spans="2:9" ht="14" customHeight="1">
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="83"/>
+    </row>
+    <row r="32" spans="2:9" ht="14.1" customHeight="1">
       <c r="D32" s="42"/>
       <c r="E32" s="43"/>
       <c r="F32" s="41"/>
@@ -3685,22 +3685,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C29:G29"/>
     <mergeCell ref="B31:I31"/>
@@ -3709,6 +3693,22 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="H5:I5"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3725,61 +3725,61 @@
       <selection pane="bottomLeft" activeCell="O18" sqref="O18:S18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="45" width="2.33203125" style="44" customWidth="1"/>
-    <col min="46" max="46" width="2.4140625" style="44" customWidth="1"/>
+    <col min="46" max="46" width="2.44140625" style="44" customWidth="1"/>
     <col min="47" max="257" width="2.33203125" style="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="26.25" customHeight="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
-      <c r="AB1" s="109"/>
-      <c r="AC1" s="109"/>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="109"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="105"/>
+      <c r="M1" s="105"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+      <c r="P1" s="105"/>
+      <c r="Q1" s="105"/>
+      <c r="R1" s="105"/>
+      <c r="S1" s="105"/>
+      <c r="T1" s="105"/>
+      <c r="U1" s="105"/>
+      <c r="V1" s="105"/>
+      <c r="W1" s="105"/>
+      <c r="X1" s="105"/>
+      <c r="Y1" s="105"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="105"/>
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="105"/>
+      <c r="AD1" s="105"/>
+      <c r="AE1" s="105"/>
+      <c r="AF1" s="105"/>
       <c r="AG1" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="196"/>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
       <c r="I2" s="47"/>
@@ -3795,95 +3795,95 @@
       <c r="S2" s="47"/>
       <c r="T2" s="47"/>
       <c r="U2" s="47"/>
-      <c r="V2" s="260"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
-      <c r="Y2" s="109"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="109"/>
-      <c r="AB2" s="260"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-    </row>
-    <row r="3" spans="1:33" ht="20.149999999999999" customHeight="1">
-      <c r="A3" s="261" t="s">
+      <c r="V2" s="108"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="105"/>
+      <c r="AA2" s="105"/>
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="105"/>
+      <c r="AD2" s="105"/>
+      <c r="AE2" s="105"/>
+      <c r="AF2" s="105"/>
+    </row>
+    <row r="3" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="264" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="265" t="str">
+      <c r="X3" s="116"/>
+      <c r="Y3" s="116"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="118" t="str">
         <f>자료입력페이지!C25</f>
         <v>02</v>
       </c>
-      <c r="AB3" s="216"/>
+      <c r="AB3" s="116"/>
       <c r="AC3" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="AD3" s="265" t="str">
+      <c r="AD3" s="118" t="str">
         <f>자료입력페이지!E25</f>
         <v>11</v>
       </c>
-      <c r="AE3" s="216"/>
+      <c r="AE3" s="116"/>
       <c r="AF3" s="49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="20.149999999999999" customHeight="1">
-      <c r="A4" s="263"/>
-      <c r="B4" s="213"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="213"/>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="213"/>
-      <c r="S4" s="213"/>
-      <c r="T4" s="213"/>
-      <c r="U4" s="213"/>
-      <c r="V4" s="214"/>
-      <c r="W4" s="240" t="s">
+    <row r="4" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="112"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="113"/>
+      <c r="O4" s="113"/>
+      <c r="P4" s="113"/>
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="113"/>
+      <c r="T4" s="113"/>
+      <c r="U4" s="113"/>
+      <c r="V4" s="114"/>
+      <c r="W4" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="194"/>
-      <c r="Z4" s="238"/>
+      <c r="X4" s="120"/>
+      <c r="Y4" s="120"/>
+      <c r="Z4" s="121"/>
       <c r="AA4" s="50" t="str">
         <f>MID(자료입력페이지!C26,1,1)</f>
         <v>3</v>
@@ -3910,472 +3910,472 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A5" s="253" t="s">
+      <c r="A5" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="227" t="str">
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="133" t="str">
         <f>MID(자료입력페이지!C6,1,1)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="227" t="str">
+      <c r="F5" s="133" t="str">
         <f>MID(자료입력페이지!C6,2,1)</f>
         <v>1</v>
       </c>
-      <c r="G5" s="227" t="str">
+      <c r="G5" s="133" t="str">
         <f>MID(자료입력페이지!C6,3,1)</f>
         <v>1</v>
       </c>
-      <c r="H5" s="227" t="s">
+      <c r="H5" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="227" t="str">
+      <c r="I5" s="133" t="str">
         <f>MID(자료입력페이지!C6,5,1)</f>
         <v>1</v>
       </c>
-      <c r="J5" s="227" t="str">
+      <c r="J5" s="133" t="str">
         <f>MID(자료입력페이지!C6,6,1)</f>
         <v>1</v>
       </c>
-      <c r="K5" s="227" t="s">
+      <c r="K5" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="227" t="str">
+      <c r="L5" s="133" t="str">
         <f>MID(자료입력페이지!C6,8,1)</f>
         <v>1</v>
       </c>
-      <c r="M5" s="227" t="str">
+      <c r="M5" s="133" t="str">
         <f>MID(자료입력페이지!C6,9,1)</f>
         <v>1</v>
       </c>
-      <c r="N5" s="227" t="str">
+      <c r="N5" s="133" t="str">
         <f>MID(자료입력페이지!C6,10,1)</f>
         <v>1</v>
       </c>
-      <c r="O5" s="227" t="str">
+      <c r="O5" s="133" t="str">
         <f>MID(자료입력페이지!C6,11,1)</f>
         <v>1</v>
       </c>
-      <c r="P5" s="227" t="str">
+      <c r="P5" s="133" t="str">
         <f>MID(자료입력페이지!C6,12,1)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="229" t="s">
+      <c r="Q5" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="231" t="s">
+      <c r="R5" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="S5" s="194"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="227" t="str">
+      <c r="S5" s="120"/>
+      <c r="T5" s="120"/>
+      <c r="U5" s="133" t="str">
         <f>MID(자료입력페이지!H6,1,1)</f>
         <v>2</v>
       </c>
-      <c r="V5" s="227" t="str">
+      <c r="V5" s="133" t="str">
         <f>MID(자료입력페이지!H6,2,1)</f>
         <v>2</v>
       </c>
-      <c r="W5" s="227" t="str">
+      <c r="W5" s="133" t="str">
         <f>MID(자료입력페이지!H6,3,1)</f>
         <v>2</v>
       </c>
-      <c r="X5" s="227" t="s">
+      <c r="X5" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="Y5" s="227" t="str">
+      <c r="Y5" s="133" t="str">
         <f>MID(자료입력페이지!H6,5,1)</f>
         <v>2</v>
       </c>
-      <c r="Z5" s="227" t="str">
+      <c r="Z5" s="133" t="str">
         <f>MID(자료입력페이지!H6,6,1)</f>
         <v>2</v>
       </c>
-      <c r="AA5" s="227" t="s">
+      <c r="AA5" s="133" t="s">
         <v>56</v>
       </c>
-      <c r="AB5" s="227" t="str">
+      <c r="AB5" s="133" t="str">
         <f>MID(자료입력페이지!H6,8,1)</f>
         <v>2</v>
       </c>
-      <c r="AC5" s="227" t="str">
+      <c r="AC5" s="133" t="str">
         <f>MID(자료입력페이지!H6,9,1)</f>
         <v>2</v>
       </c>
-      <c r="AD5" s="227" t="str">
+      <c r="AD5" s="133" t="str">
         <f>MID(자료입력페이지!H6,10,1)</f>
         <v>2</v>
       </c>
-      <c r="AE5" s="227" t="str">
+      <c r="AE5" s="133" t="str">
         <f>MID(자료입력페이지!H6,11,1)</f>
         <v>2</v>
       </c>
-      <c r="AF5" s="247" t="str">
+      <c r="AF5" s="122" t="str">
         <f>MID(자료입력페이지!H6,12,1)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A6" s="254"/>
-      <c r="B6" s="232"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="213"/>
-      <c r="E6" s="228"/>
-      <c r="F6" s="228"/>
-      <c r="G6" s="228"/>
-      <c r="H6" s="228"/>
-      <c r="I6" s="228"/>
-      <c r="J6" s="228"/>
-      <c r="K6" s="228"/>
-      <c r="L6" s="228"/>
-      <c r="M6" s="228"/>
-      <c r="N6" s="228"/>
-      <c r="O6" s="228"/>
-      <c r="P6" s="228"/>
-      <c r="Q6" s="230"/>
-      <c r="R6" s="232"/>
-      <c r="S6" s="213"/>
-      <c r="T6" s="213"/>
-      <c r="U6" s="228"/>
-      <c r="V6" s="228"/>
-      <c r="W6" s="228"/>
-      <c r="X6" s="228"/>
-      <c r="Y6" s="228"/>
-      <c r="Z6" s="228"/>
-      <c r="AA6" s="228"/>
-      <c r="AB6" s="228"/>
-      <c r="AC6" s="228"/>
-      <c r="AD6" s="228"/>
-      <c r="AE6" s="228"/>
-      <c r="AF6" s="248"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
+      <c r="O6" s="127"/>
+      <c r="P6" s="127"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="125"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="127"/>
+      <c r="V6" s="127"/>
+      <c r="W6" s="127"/>
+      <c r="X6" s="127"/>
+      <c r="Y6" s="127"/>
+      <c r="Z6" s="127"/>
+      <c r="AA6" s="127"/>
+      <c r="AB6" s="127"/>
+      <c r="AC6" s="127"/>
+      <c r="AD6" s="127"/>
+      <c r="AE6" s="127"/>
+      <c r="AF6" s="123"/>
     </row>
     <row r="7" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A7" s="254"/>
-      <c r="B7" s="256" t="s">
+      <c r="A7" s="131"/>
+      <c r="B7" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="249" t="str">
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="124" t="str">
         <f>자료입력페이지!C5</f>
         <v>스타트코딩</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="250" t="s">
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="251" t="str">
+      <c r="L7" s="128" t="str">
         <f>자료입력페이지!C7</f>
         <v>스타트코딩</v>
       </c>
-      <c r="M7" s="194"/>
-      <c r="N7" s="194"/>
-      <c r="O7" s="194"/>
-      <c r="P7" s="252" t="s">
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="120"/>
+      <c r="P7" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="240" t="s">
+      <c r="Q7" s="136"/>
+      <c r="R7" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="194"/>
-      <c r="T7" s="238"/>
-      <c r="U7" s="243" t="str">
+      <c r="S7" s="120"/>
+      <c r="T7" s="121"/>
+      <c r="U7" s="149" t="str">
         <f>자료입력페이지!H5</f>
         <v>콩쥐하이텍</v>
       </c>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="230"/>
-      <c r="AA7" s="244" t="s">
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="105"/>
+      <c r="Y7" s="105"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="AB7" s="245" t="str">
+      <c r="AB7" s="151" t="str">
         <f>자료입력페이지!H7</f>
         <v>콩쥐</v>
       </c>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="246" t="s">
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="152" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A8" s="254"/>
-      <c r="B8" s="233" t="s">
+      <c r="A8" s="131"/>
+      <c r="B8" s="153" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="213"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="213"/>
-      <c r="H8" s="213"/>
-      <c r="I8" s="213"/>
-      <c r="J8" s="214"/>
-      <c r="K8" s="228"/>
-      <c r="L8" s="232"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="230"/>
-      <c r="R8" s="234" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="136"/>
+      <c r="R8" s="154" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="213"/>
-      <c r="T8" s="214"/>
-      <c r="U8" s="232"/>
-      <c r="V8" s="213"/>
-      <c r="W8" s="213"/>
-      <c r="X8" s="213"/>
-      <c r="Y8" s="213"/>
-      <c r="Z8" s="214"/>
-      <c r="AA8" s="228"/>
-      <c r="AB8" s="232"/>
-      <c r="AC8" s="213"/>
-      <c r="AD8" s="213"/>
-      <c r="AE8" s="213"/>
-      <c r="AF8" s="219"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="125"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="114"/>
+      <c r="AA8" s="127"/>
+      <c r="AB8" s="125"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="141"/>
     </row>
     <row r="9" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A9" s="254"/>
-      <c r="B9" s="240" t="s">
+      <c r="A9" s="131"/>
+      <c r="B9" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="194"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="257" t="str">
+      <c r="C9" s="120"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="138" t="str">
         <f>자료입력페이지!C8</f>
         <v>서울시  서초구 서초동 123</v>
       </c>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="230"/>
-      <c r="Q9" s="230"/>
-      <c r="R9" s="240" t="s">
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="105"/>
+      <c r="P9" s="136"/>
+      <c r="Q9" s="136"/>
+      <c r="R9" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="S9" s="194"/>
-      <c r="T9" s="238"/>
-      <c r="U9" s="258" t="str">
+      <c r="S9" s="120"/>
+      <c r="T9" s="121"/>
+      <c r="U9" s="139" t="str">
         <f>자료입력페이지!H8</f>
         <v xml:space="preserve">서울시 강남구 삼성동 123 </v>
       </c>
-      <c r="V9" s="194"/>
-      <c r="W9" s="194"/>
-      <c r="X9" s="194"/>
-      <c r="Y9" s="194"/>
-      <c r="Z9" s="194"/>
-      <c r="AA9" s="194"/>
-      <c r="AB9" s="194"/>
-      <c r="AC9" s="194"/>
-      <c r="AD9" s="194"/>
-      <c r="AE9" s="194"/>
-      <c r="AF9" s="224"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="120"/>
+      <c r="AC9" s="120"/>
+      <c r="AD9" s="120"/>
+      <c r="AE9" s="120"/>
+      <c r="AF9" s="140"/>
     </row>
     <row r="10" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A10" s="254"/>
-      <c r="B10" s="255" t="s">
+      <c r="A10" s="131"/>
+      <c r="B10" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="213"/>
-      <c r="D10" s="214"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="213"/>
-      <c r="G10" s="213"/>
-      <c r="H10" s="213"/>
-      <c r="I10" s="213"/>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213"/>
-      <c r="L10" s="213"/>
-      <c r="M10" s="213"/>
-      <c r="N10" s="213"/>
-      <c r="O10" s="213"/>
-      <c r="P10" s="214"/>
-      <c r="Q10" s="230"/>
-      <c r="R10" s="255" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="113"/>
+      <c r="O10" s="113"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="136"/>
+      <c r="R10" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="S10" s="213"/>
-      <c r="T10" s="214"/>
-      <c r="U10" s="232"/>
-      <c r="V10" s="213"/>
-      <c r="W10" s="213"/>
-      <c r="X10" s="213"/>
-      <c r="Y10" s="213"/>
-      <c r="Z10" s="213"/>
-      <c r="AA10" s="213"/>
-      <c r="AB10" s="213"/>
-      <c r="AC10" s="213"/>
-      <c r="AD10" s="213"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="219"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="141"/>
     </row>
     <row r="11" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A11" s="254"/>
-      <c r="B11" s="240" t="s">
+      <c r="A11" s="131"/>
+      <c r="B11" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="194"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="237" t="str">
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="142" t="str">
         <f>자료입력페이지!C9</f>
         <v>인터넷서비스</v>
       </c>
-      <c r="F11" s="194"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="194"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="238"/>
-      <c r="K11" s="235" t="s">
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="237" t="str">
+      <c r="L11" s="142" t="str">
         <f>자료입력페이지!C10</f>
         <v>온라인정보제공</v>
       </c>
-      <c r="M11" s="194"/>
-      <c r="N11" s="194"/>
-      <c r="O11" s="194"/>
-      <c r="P11" s="238"/>
-      <c r="Q11" s="230"/>
-      <c r="R11" s="240" t="s">
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="121"/>
+      <c r="Q11" s="136"/>
+      <c r="R11" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="S11" s="194"/>
-      <c r="T11" s="238"/>
-      <c r="U11" s="237" t="str">
+      <c r="S11" s="120"/>
+      <c r="T11" s="121"/>
+      <c r="U11" s="142" t="str">
         <f>자료입력페이지!H9</f>
         <v>제조</v>
       </c>
-      <c r="V11" s="194"/>
-      <c r="W11" s="194"/>
-      <c r="X11" s="194"/>
-      <c r="Y11" s="194"/>
-      <c r="Z11" s="238"/>
-      <c r="AA11" s="235" t="s">
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="121"/>
+      <c r="AA11" s="145" t="s">
         <v>17</v>
       </c>
-      <c r="AB11" s="242" t="str">
+      <c r="AB11" s="147" t="str">
         <f>자료입력페이지!H10</f>
         <v>부품제조</v>
       </c>
-      <c r="AC11" s="194"/>
-      <c r="AD11" s="194"/>
-      <c r="AE11" s="194"/>
-      <c r="AF11" s="224"/>
+      <c r="AC11" s="120"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="140"/>
     </row>
     <row r="12" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A12" s="254"/>
-      <c r="B12" s="241"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="236"/>
-      <c r="L12" s="195"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
-      <c r="P12" s="239"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="241"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="230"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="196"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="196"/>
-      <c r="Y12" s="196"/>
-      <c r="Z12" s="239"/>
-      <c r="AA12" s="236"/>
-      <c r="AB12" s="195"/>
-      <c r="AC12" s="196"/>
-      <c r="AD12" s="196"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="201"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="135"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="136"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="136"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="107"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="107"/>
+      <c r="Y12" s="107"/>
+      <c r="Z12" s="144"/>
+      <c r="AA12" s="146"/>
+      <c r="AB12" s="143"/>
+      <c r="AC12" s="107"/>
+      <c r="AD12" s="107"/>
+      <c r="AE12" s="107"/>
+      <c r="AF12" s="148"/>
     </row>
     <row r="13" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A13" s="220" t="s">
+      <c r="A13" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="215" t="s">
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="216"/>
-      <c r="G13" s="216"/>
-      <c r="H13" s="216"/>
-      <c r="I13" s="216"/>
-      <c r="J13" s="216"/>
-      <c r="K13" s="216"/>
-      <c r="L13" s="216"/>
-      <c r="M13" s="216"/>
-      <c r="N13" s="216"/>
-      <c r="O13" s="216"/>
-      <c r="P13" s="216"/>
-      <c r="Q13" s="217"/>
-      <c r="R13" s="215" t="s">
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="116"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="S13" s="216"/>
-      <c r="T13" s="216"/>
-      <c r="U13" s="216"/>
-      <c r="V13" s="216"/>
-      <c r="W13" s="216"/>
-      <c r="X13" s="216"/>
-      <c r="Y13" s="216"/>
-      <c r="Z13" s="216"/>
-      <c r="AA13" s="217"/>
-      <c r="AB13" s="221" t="s">
+      <c r="S13" s="116"/>
+      <c r="T13" s="116"/>
+      <c r="U13" s="116"/>
+      <c r="V13" s="116"/>
+      <c r="W13" s="116"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="117"/>
+      <c r="AB13" s="158" t="s">
         <v>68</v>
       </c>
-      <c r="AC13" s="216"/>
-      <c r="AD13" s="216"/>
-      <c r="AE13" s="216"/>
-      <c r="AF13" s="222"/>
+      <c r="AC13" s="116"/>
+      <c r="AD13" s="116"/>
+      <c r="AE13" s="116"/>
+      <c r="AF13" s="159"/>
     </row>
     <row r="14" spans="1:33" ht="13.5" customHeight="1">
-      <c r="A14" s="189" t="s">
+      <c r="A14" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="191"/>
+      <c r="B14" s="161"/>
       <c r="C14" s="52" t="s">
         <v>70</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="192" t="s">
+      <c r="E14" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="F14" s="191"/>
+      <c r="F14" s="161"/>
       <c r="G14" s="53" t="s">
         <v>73</v>
       </c>
@@ -4439,34 +4439,34 @@
       <c r="AA14" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="AB14" s="223">
+      <c r="AB14" s="163">
         <f>자료입력페이지!H11</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="194"/>
-      <c r="AD14" s="194"/>
-      <c r="AE14" s="194"/>
-      <c r="AF14" s="224"/>
-    </row>
-    <row r="15" spans="1:33" ht="20.149999999999999" customHeight="1">
-      <c r="A15" s="225">
+      <c r="AC14" s="120"/>
+      <c r="AD14" s="120"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="140"/>
+    </row>
+    <row r="15" spans="1:33" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="164">
         <f>YEAR(자료입력페이지!C14)</f>
-        <v>2023</v>
-      </c>
-      <c r="B15" s="203"/>
+        <v>2030</v>
+      </c>
+      <c r="B15" s="165"/>
       <c r="C15" s="54">
         <f>MONTH(자료입력페이지!C14)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" s="55">
         <f>DAY(자료입력페이지!C14)</f>
         <v>1</v>
       </c>
-      <c r="E15" s="226">
+      <c r="E15" s="166">
         <f>COUNTBLANK(G15:Q15)</f>
         <v>5</v>
       </c>
-      <c r="F15" s="204"/>
+      <c r="F15" s="167"/>
       <c r="G15" s="56" t="str">
         <f>IF(ISERROR(MID(자료입력페이지!G21,LEN(자료입력페이지!G21)-10,1)),"",MID(자료입력페이지!G21,LEN(자료입력페이지!G21)-10,1))</f>
         <v/>
@@ -4551,11 +4551,11 @@
         <f>RIGHT(자료입력페이지!H21)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="195"/>
-      <c r="AC15" s="196"/>
-      <c r="AD15" s="196"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="201"/>
+      <c r="AB15" s="143"/>
+      <c r="AC15" s="107"/>
+      <c r="AD15" s="107"/>
+      <c r="AE15" s="107"/>
+      <c r="AF15" s="148"/>
     </row>
     <row r="16" spans="1:33" ht="13.5" customHeight="1">
       <c r="A16" s="57" t="s">
@@ -4564,415 +4564,415 @@
       <c r="B16" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="212" t="s">
+      <c r="C16" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="213"/>
-      <c r="E16" s="213"/>
-      <c r="F16" s="213"/>
-      <c r="G16" s="213"/>
-      <c r="H16" s="214"/>
-      <c r="I16" s="215" t="s">
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="216"/>
-      <c r="K16" s="217"/>
-      <c r="L16" s="215" t="s">
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="M16" s="216"/>
-      <c r="N16" s="217"/>
-      <c r="O16" s="212" t="s">
+      <c r="M16" s="116"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="168" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="213"/>
-      <c r="S16" s="214"/>
-      <c r="T16" s="212" t="s">
+      <c r="P16" s="113"/>
+      <c r="Q16" s="113"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="114"/>
+      <c r="T16" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="U16" s="213"/>
-      <c r="V16" s="213"/>
-      <c r="W16" s="213"/>
-      <c r="X16" s="213"/>
-      <c r="Y16" s="214"/>
-      <c r="Z16" s="212" t="s">
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="114"/>
+      <c r="Z16" s="168" t="s">
         <v>81</v>
       </c>
-      <c r="AA16" s="213"/>
-      <c r="AB16" s="213"/>
-      <c r="AC16" s="213"/>
-      <c r="AD16" s="214"/>
-      <c r="AE16" s="218" t="s">
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="114"/>
+      <c r="AE16" s="169" t="s">
         <v>20</v>
       </c>
-      <c r="AF16" s="219"/>
-    </row>
-    <row r="17" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AF16" s="141"/>
+    </row>
+    <row r="17" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="59">
         <f>C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B17" s="60">
         <f>D15</f>
         <v>1</v>
       </c>
-      <c r="C17" s="206" t="str">
+      <c r="C17" s="170" t="str">
         <f>자료입력페이지!C16</f>
         <v>ERP 프로그램</v>
       </c>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="191"/>
-      <c r="I17" s="207">
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="161"/>
+      <c r="I17" s="172">
         <f>자료입력페이지!D16</f>
         <v>0</v>
       </c>
-      <c r="J17" s="190"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="208">
+      <c r="J17" s="171"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="173">
         <f>자료입력페이지!E16</f>
         <v>1</v>
       </c>
-      <c r="M17" s="190"/>
-      <c r="N17" s="191"/>
-      <c r="O17" s="209">
+      <c r="M17" s="171"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="174">
         <f>자료입력페이지!F16</f>
         <v>250000</v>
       </c>
-      <c r="P17" s="190"/>
-      <c r="Q17" s="190"/>
-      <c r="R17" s="190"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="209">
+      <c r="P17" s="171"/>
+      <c r="Q17" s="171"/>
+      <c r="R17" s="171"/>
+      <c r="S17" s="161"/>
+      <c r="T17" s="174">
         <f>자료입력페이지!G16</f>
         <v>250000</v>
       </c>
-      <c r="U17" s="190"/>
-      <c r="V17" s="190"/>
-      <c r="W17" s="190"/>
-      <c r="X17" s="190"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="209">
+      <c r="U17" s="171"/>
+      <c r="V17" s="171"/>
+      <c r="W17" s="171"/>
+      <c r="X17" s="171"/>
+      <c r="Y17" s="161"/>
+      <c r="Z17" s="174">
         <f>자료입력페이지!H16</f>
         <v>25000</v>
       </c>
-      <c r="AA17" s="190"/>
-      <c r="AB17" s="190"/>
-      <c r="AC17" s="190"/>
-      <c r="AD17" s="191"/>
-      <c r="AE17" s="210"/>
-      <c r="AF17" s="211"/>
-    </row>
-    <row r="18" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA17" s="171"/>
+      <c r="AB17" s="171"/>
+      <c r="AC17" s="171"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="175"/>
+      <c r="AF17" s="176"/>
+    </row>
+    <row r="18" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="59"/>
       <c r="B18" s="60"/>
-      <c r="C18" s="206" t="str">
+      <c r="C18" s="170" t="str">
         <f>자료입력페이지!C17</f>
         <v>서버유지보수</v>
       </c>
-      <c r="D18" s="190"/>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="191"/>
-      <c r="I18" s="207">
+      <c r="D18" s="171"/>
+      <c r="E18" s="171"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="161"/>
+      <c r="I18" s="172">
         <f>자료입력페이지!D17</f>
         <v>0</v>
       </c>
-      <c r="J18" s="190"/>
-      <c r="K18" s="191"/>
-      <c r="L18" s="208">
+      <c r="J18" s="171"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="173">
         <f>자료입력페이지!E17</f>
         <v>1</v>
       </c>
-      <c r="M18" s="190"/>
-      <c r="N18" s="191"/>
-      <c r="O18" s="209">
+      <c r="M18" s="171"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="174">
         <f>자료입력페이지!F17</f>
         <v>100000</v>
       </c>
-      <c r="P18" s="190"/>
-      <c r="Q18" s="190"/>
-      <c r="R18" s="190"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="209">
+      <c r="P18" s="171"/>
+      <c r="Q18" s="171"/>
+      <c r="R18" s="171"/>
+      <c r="S18" s="161"/>
+      <c r="T18" s="174">
         <f>자료입력페이지!G17</f>
         <v>100000</v>
       </c>
-      <c r="U18" s="190"/>
-      <c r="V18" s="190"/>
-      <c r="W18" s="190"/>
-      <c r="X18" s="190"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="209">
+      <c r="U18" s="171"/>
+      <c r="V18" s="171"/>
+      <c r="W18" s="171"/>
+      <c r="X18" s="171"/>
+      <c r="Y18" s="161"/>
+      <c r="Z18" s="174">
         <f>자료입력페이지!H17</f>
         <v>10000</v>
       </c>
-      <c r="AA18" s="190"/>
-      <c r="AB18" s="190"/>
-      <c r="AC18" s="190"/>
-      <c r="AD18" s="191"/>
-      <c r="AE18" s="210"/>
-      <c r="AF18" s="211"/>
-    </row>
-    <row r="19" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA18" s="171"/>
+      <c r="AB18" s="171"/>
+      <c r="AC18" s="171"/>
+      <c r="AD18" s="161"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="176"/>
+    </row>
+    <row r="19" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="59"/>
       <c r="B19" s="60"/>
-      <c r="C19" s="206">
+      <c r="C19" s="170">
         <f>자료입력페이지!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="190"/>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="191"/>
-      <c r="I19" s="207">
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="161"/>
+      <c r="I19" s="172">
         <f>자료입력페이지!D18</f>
         <v>0</v>
       </c>
-      <c r="J19" s="190"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="208">
+      <c r="J19" s="171"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="173">
         <f>자료입력페이지!E18</f>
         <v>0</v>
       </c>
-      <c r="M19" s="190"/>
-      <c r="N19" s="191"/>
-      <c r="O19" s="209">
+      <c r="M19" s="171"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="174">
         <f>자료입력페이지!F18</f>
         <v>0</v>
       </c>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="190"/>
-      <c r="R19" s="190"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="209">
+      <c r="P19" s="171"/>
+      <c r="Q19" s="171"/>
+      <c r="R19" s="171"/>
+      <c r="S19" s="161"/>
+      <c r="T19" s="174">
         <f>자료입력페이지!G18</f>
         <v>0</v>
       </c>
-      <c r="U19" s="190"/>
-      <c r="V19" s="190"/>
-      <c r="W19" s="190"/>
-      <c r="X19" s="190"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="209">
+      <c r="U19" s="171"/>
+      <c r="V19" s="171"/>
+      <c r="W19" s="171"/>
+      <c r="X19" s="171"/>
+      <c r="Y19" s="161"/>
+      <c r="Z19" s="174">
         <f>자료입력페이지!H18</f>
         <v>0</v>
       </c>
-      <c r="AA19" s="190"/>
-      <c r="AB19" s="190"/>
-      <c r="AC19" s="190"/>
-      <c r="AD19" s="191"/>
-      <c r="AE19" s="210"/>
-      <c r="AF19" s="211"/>
-    </row>
-    <row r="20" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA19" s="171"/>
+      <c r="AB19" s="171"/>
+      <c r="AC19" s="171"/>
+      <c r="AD19" s="161"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="176"/>
+    </row>
+    <row r="20" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="59"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="206">
+      <c r="C20" s="170">
         <f>자료입력페이지!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="207">
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="172">
         <f>자료입력페이지!D20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="208">
+      <c r="J20" s="171"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="173">
         <f>자료입력페이지!E19</f>
         <v>0</v>
       </c>
-      <c r="M20" s="190"/>
-      <c r="N20" s="191"/>
-      <c r="O20" s="209">
+      <c r="M20" s="171"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="174">
         <f>자료입력페이지!F19</f>
         <v>0</v>
       </c>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="209">
+      <c r="P20" s="171"/>
+      <c r="Q20" s="171"/>
+      <c r="R20" s="171"/>
+      <c r="S20" s="161"/>
+      <c r="T20" s="174">
         <f>자료입력페이지!G19</f>
         <v>0</v>
       </c>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="191"/>
-      <c r="Z20" s="209">
+      <c r="U20" s="171"/>
+      <c r="V20" s="171"/>
+      <c r="W20" s="171"/>
+      <c r="X20" s="171"/>
+      <c r="Y20" s="161"/>
+      <c r="Z20" s="174">
         <f>자료입력페이지!H19</f>
         <v>0</v>
       </c>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="191"/>
-      <c r="AE20" s="210"/>
-      <c r="AF20" s="211"/>
-    </row>
-    <row r="21" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA20" s="171"/>
+      <c r="AB20" s="171"/>
+      <c r="AC20" s="171"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="176"/>
+    </row>
+    <row r="21" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="59"/>
       <c r="B21" s="60"/>
-      <c r="C21" s="206">
+      <c r="C21" s="170">
         <f>자료입력페이지!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="190"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="191"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="161"/>
       <c r="I21" s="61"/>
       <c r="J21" s="62"/>
       <c r="K21" s="63"/>
-      <c r="L21" s="208">
+      <c r="L21" s="173">
         <f>자료입력페이지!E20</f>
         <v>0</v>
       </c>
-      <c r="M21" s="190"/>
-      <c r="N21" s="191"/>
-      <c r="O21" s="209">
+      <c r="M21" s="171"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="174">
         <f>자료입력페이지!F20</f>
         <v>0</v>
       </c>
-      <c r="P21" s="190"/>
-      <c r="Q21" s="190"/>
-      <c r="R21" s="190"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="209">
+      <c r="P21" s="171"/>
+      <c r="Q21" s="171"/>
+      <c r="R21" s="171"/>
+      <c r="S21" s="161"/>
+      <c r="T21" s="174">
         <f>자료입력페이지!G20</f>
         <v>0</v>
       </c>
-      <c r="U21" s="190"/>
-      <c r="V21" s="190"/>
-      <c r="W21" s="190"/>
-      <c r="X21" s="190"/>
-      <c r="Y21" s="191"/>
-      <c r="Z21" s="209">
+      <c r="U21" s="171"/>
+      <c r="V21" s="171"/>
+      <c r="W21" s="171"/>
+      <c r="X21" s="171"/>
+      <c r="Y21" s="161"/>
+      <c r="Z21" s="174">
         <f>자료입력페이지!H20</f>
         <v>0</v>
       </c>
-      <c r="AA21" s="190"/>
-      <c r="AB21" s="190"/>
-      <c r="AC21" s="190"/>
-      <c r="AD21" s="191"/>
-      <c r="AE21" s="210"/>
-      <c r="AF21" s="211"/>
+      <c r="AA21" s="171"/>
+      <c r="AB21" s="171"/>
+      <c r="AC21" s="171"/>
+      <c r="AD21" s="161"/>
+      <c r="AE21" s="175"/>
+      <c r="AF21" s="176"/>
     </row>
     <row r="22" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="160" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="192" t="s">
+      <c r="B22" s="171"/>
+      <c r="C22" s="171"/>
+      <c r="D22" s="171"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="191"/>
-      <c r="K22" s="192" t="s">
+      <c r="G22" s="171"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="L22" s="190"/>
-      <c r="M22" s="190"/>
-      <c r="N22" s="190"/>
-      <c r="O22" s="191"/>
-      <c r="P22" s="192" t="s">
+      <c r="L22" s="171"/>
+      <c r="M22" s="171"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="Q22" s="190"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="190"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="192" t="s">
+      <c r="Q22" s="171"/>
+      <c r="R22" s="171"/>
+      <c r="S22" s="171"/>
+      <c r="T22" s="161"/>
+      <c r="U22" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="V22" s="190"/>
-      <c r="W22" s="190"/>
-      <c r="X22" s="190"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="193" t="s">
+      <c r="V22" s="171"/>
+      <c r="W22" s="171"/>
+      <c r="X22" s="171"/>
+      <c r="Y22" s="161"/>
+      <c r="Z22" s="177" t="s">
         <v>86</v>
       </c>
-      <c r="AA22" s="194"/>
-      <c r="AB22" s="194"/>
-      <c r="AC22" s="194"/>
-      <c r="AD22" s="197" t="str">
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="120"/>
+      <c r="AC22" s="120"/>
+      <c r="AD22" s="178" t="str">
         <f>IF(AG1=1,"영수","청구")</f>
         <v>영수</v>
       </c>
-      <c r="AE22" s="198"/>
-      <c r="AF22" s="200" t="s">
+      <c r="AE22" s="179"/>
+      <c r="AF22" s="181" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="20.149999999999999" customHeight="1">
-      <c r="A23" s="202">
+    <row r="23" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="182">
         <f>자료입력페이지!I21</f>
         <v>385000</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="204"/>
-      <c r="K23" s="205"/>
-      <c r="L23" s="203"/>
-      <c r="M23" s="203"/>
-      <c r="N23" s="203"/>
-      <c r="O23" s="204"/>
-      <c r="P23" s="205"/>
-      <c r="Q23" s="203"/>
-      <c r="R23" s="203"/>
-      <c r="S23" s="203"/>
-      <c r="T23" s="204"/>
-      <c r="U23" s="205"/>
-      <c r="V23" s="203"/>
-      <c r="W23" s="203"/>
-      <c r="X23" s="203"/>
-      <c r="Y23" s="204"/>
-      <c r="Z23" s="195"/>
-      <c r="AA23" s="196"/>
-      <c r="AB23" s="196"/>
-      <c r="AC23" s="196"/>
-      <c r="AD23" s="199"/>
-      <c r="AE23" s="199"/>
-      <c r="AF23" s="201"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="183"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="165"/>
+      <c r="M23" s="165"/>
+      <c r="N23" s="165"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="183"/>
+      <c r="Q23" s="165"/>
+      <c r="R23" s="165"/>
+      <c r="S23" s="165"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="183"/>
+      <c r="V23" s="165"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="165"/>
+      <c r="Y23" s="167"/>
+      <c r="Z23" s="143"/>
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="107"/>
+      <c r="AC23" s="107"/>
+      <c r="AD23" s="180"/>
+      <c r="AE23" s="180"/>
+      <c r="AF23" s="148"/>
     </row>
     <row r="24" spans="1:32" ht="14.25" customHeight="1">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="184" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="179"/>
-      <c r="C24" s="179"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-      <c r="G24" s="179"/>
-      <c r="H24" s="179"/>
-      <c r="I24" s="179"/>
-      <c r="J24" s="179"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
       <c r="K24" s="47"/>
       <c r="L24" s="47"/>
       <c r="M24" s="47"/>
@@ -4983,20 +4983,20 @@
       <c r="R24" s="47"/>
       <c r="S24" s="47"/>
       <c r="T24" s="47"/>
-      <c r="U24" s="180" t="s">
+      <c r="U24" s="185" t="s">
         <v>89</v>
       </c>
-      <c r="V24" s="179"/>
-      <c r="W24" s="179"/>
-      <c r="X24" s="179"/>
-      <c r="Y24" s="179"/>
-      <c r="Z24" s="179"/>
-      <c r="AA24" s="179"/>
-      <c r="AB24" s="179"/>
-      <c r="AC24" s="179"/>
-      <c r="AD24" s="179"/>
-      <c r="AE24" s="179"/>
-      <c r="AF24" s="179"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="110"/>
+      <c r="Y24" s="110"/>
+      <c r="Z24" s="110"/>
+      <c r="AA24" s="110"/>
+      <c r="AB24" s="110"/>
+      <c r="AC24" s="110"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="110"/>
     </row>
     <row r="25" spans="1:32" ht="9.75" customHeight="1">
       <c r="A25" s="64"/>
@@ -5014,23 +5014,23 @@
       <c r="M25" s="47"/>
       <c r="N25" s="47"/>
       <c r="O25" s="47"/>
-      <c r="P25" s="181"/>
-      <c r="Q25" s="182"/>
-      <c r="R25" s="182"/>
-      <c r="S25" s="182"/>
-      <c r="T25" s="182"/>
-      <c r="U25" s="182"/>
-      <c r="V25" s="182"/>
-      <c r="W25" s="182"/>
-      <c r="X25" s="182"/>
-      <c r="Y25" s="182"/>
-      <c r="Z25" s="182"/>
-      <c r="AA25" s="182"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="182"/>
-      <c r="AD25" s="182"/>
-      <c r="AE25" s="182"/>
-      <c r="AF25" s="182"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="187"/>
+      <c r="R25" s="187"/>
+      <c r="S25" s="187"/>
+      <c r="T25" s="187"/>
+      <c r="U25" s="187"/>
+      <c r="V25" s="187"/>
+      <c r="W25" s="187"/>
+      <c r="X25" s="187"/>
+      <c r="Y25" s="187"/>
+      <c r="Z25" s="187"/>
+      <c r="AA25" s="187"/>
+      <c r="AB25" s="187"/>
+      <c r="AC25" s="187"/>
+      <c r="AD25" s="187"/>
+      <c r="AE25" s="187"/>
+      <c r="AF25" s="187"/>
     </row>
     <row r="26" spans="1:32" ht="9.75" customHeight="1">
       <c r="A26" s="65"/>
@@ -5101,14 +5101,14 @@
       <c r="AF27" s="68"/>
     </row>
     <row r="28" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
+      <c r="B28" s="189"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
       <c r="G28" s="69"/>
       <c r="H28" s="69"/>
       <c r="I28" s="69"/>
@@ -5136,83 +5136,83 @@
       <c r="AE28" s="69"/>
       <c r="AF28" s="69"/>
     </row>
-    <row r="29" spans="1:32" ht="20.149999999999999" customHeight="1">
-      <c r="A29" s="184" t="s">
+    <row r="29" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="190" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
-      <c r="V29" s="185"/>
-      <c r="W29" s="187" t="s">
+      <c r="B29" s="191"/>
+      <c r="C29" s="191"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="191"/>
+      <c r="H29" s="191"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="191"/>
+      <c r="M29" s="191"/>
+      <c r="N29" s="191"/>
+      <c r="O29" s="191"/>
+      <c r="P29" s="191"/>
+      <c r="Q29" s="191"/>
+      <c r="R29" s="191"/>
+      <c r="S29" s="191"/>
+      <c r="T29" s="191"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="192"/>
+      <c r="W29" s="196" t="s">
         <v>52</v>
       </c>
-      <c r="X29" s="133"/>
-      <c r="Y29" s="133"/>
-      <c r="Z29" s="134"/>
-      <c r="AA29" s="188" t="str">
+      <c r="X29" s="197"/>
+      <c r="Y29" s="197"/>
+      <c r="Z29" s="198"/>
+      <c r="AA29" s="199" t="str">
         <f>AA3</f>
         <v>02</v>
       </c>
-      <c r="AB29" s="133"/>
+      <c r="AB29" s="197"/>
       <c r="AC29" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="AD29" s="188" t="str">
+      <c r="AD29" s="199" t="str">
         <f>AD3</f>
         <v>11</v>
       </c>
-      <c r="AE29" s="133"/>
+      <c r="AE29" s="197"/>
       <c r="AF29" s="71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="20.149999999999999" customHeight="1">
-      <c r="A30" s="186"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-      <c r="N30" s="149"/>
-      <c r="O30" s="149"/>
-      <c r="P30" s="149"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="149"/>
-      <c r="S30" s="149"/>
-      <c r="T30" s="149"/>
-      <c r="U30" s="149"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="170" t="s">
+    <row r="30" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="193"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="194"/>
+      <c r="D30" s="194"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="194"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="194"/>
+      <c r="O30" s="194"/>
+      <c r="P30" s="194"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="194"/>
+      <c r="T30" s="194"/>
+      <c r="U30" s="194"/>
+      <c r="V30" s="195"/>
+      <c r="W30" s="200" t="s">
         <v>53</v>
       </c>
-      <c r="X30" s="115"/>
-      <c r="Y30" s="115"/>
-      <c r="Z30" s="156"/>
+      <c r="X30" s="201"/>
+      <c r="Y30" s="201"/>
+      <c r="Z30" s="202"/>
       <c r="AA30" s="72" t="str">
         <f>AA4</f>
         <v>3</v>
@@ -5239,474 +5239,474 @@
       </c>
     </row>
     <row r="31" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A31" s="171" t="s">
+      <c r="A31" s="211" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="142" t="str">
+      <c r="C31" s="201"/>
+      <c r="D31" s="201"/>
+      <c r="E31" s="215" t="str">
         <f t="shared" ref="E31:P31" si="0">E5</f>
         <v>1</v>
       </c>
-      <c r="F31" s="142" t="str">
+      <c r="F31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G31" s="142" t="str">
+      <c r="G31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H31" s="142" t="str">
+      <c r="H31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="I31" s="142" t="str">
+      <c r="I31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J31" s="142" t="str">
+      <c r="J31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K31" s="142" t="str">
+      <c r="K31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="L31" s="142" t="str">
+      <c r="L31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M31" s="142" t="str">
+      <c r="M31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N31" s="142" t="str">
+      <c r="N31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O31" s="142" t="str">
+      <c r="O31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P31" s="142" t="str">
+      <c r="P31" s="215" t="str">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="144" t="s">
+      <c r="Q31" s="237" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="147" t="s">
+      <c r="R31" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="142" t="str">
+      <c r="S31" s="201"/>
+      <c r="T31" s="201"/>
+      <c r="U31" s="215" t="str">
         <f>U5</f>
         <v>2</v>
       </c>
-      <c r="V31" s="142" t="str">
+      <c r="V31" s="215" t="str">
         <f>V5</f>
         <v>2</v>
       </c>
-      <c r="W31" s="142" t="str">
+      <c r="W31" s="215" t="str">
         <f>W5</f>
         <v>2</v>
       </c>
-      <c r="X31" s="142" t="s">
+      <c r="X31" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="Y31" s="142" t="str">
+      <c r="Y31" s="215" t="str">
         <f>Y5</f>
         <v>2</v>
       </c>
-      <c r="Z31" s="142" t="str">
+      <c r="Z31" s="215" t="str">
         <f>Z5</f>
         <v>2</v>
       </c>
-      <c r="AA31" s="142" t="s">
+      <c r="AA31" s="215" t="s">
         <v>56</v>
       </c>
-      <c r="AB31" s="142" t="str">
+      <c r="AB31" s="215" t="str">
         <f>AB5</f>
         <v>2</v>
       </c>
-      <c r="AC31" s="142" t="str">
+      <c r="AC31" s="215" t="str">
         <f>AC5</f>
         <v>2</v>
       </c>
-      <c r="AD31" s="142" t="str">
+      <c r="AD31" s="215" t="str">
         <f>AD5</f>
         <v>2</v>
       </c>
-      <c r="AE31" s="142" t="str">
+      <c r="AE31" s="215" t="str">
         <f>AE5</f>
         <v>2</v>
       </c>
-      <c r="AF31" s="164" t="str">
+      <c r="AF31" s="203" t="str">
         <f>AF5</f>
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A32" s="172"/>
-      <c r="B32" s="148"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="143"/>
-      <c r="P32" s="143"/>
-      <c r="Q32" s="145"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="143"/>
-      <c r="W32" s="143"/>
-      <c r="X32" s="143"/>
-      <c r="Y32" s="143"/>
-      <c r="Z32" s="143"/>
-      <c r="AA32" s="143"/>
-      <c r="AB32" s="143"/>
-      <c r="AC32" s="143"/>
-      <c r="AD32" s="143"/>
-      <c r="AE32" s="143"/>
-      <c r="AF32" s="165"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="206"/>
+      <c r="C32" s="194"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="208"/>
+      <c r="M32" s="208"/>
+      <c r="N32" s="208"/>
+      <c r="O32" s="208"/>
+      <c r="P32" s="208"/>
+      <c r="Q32" s="222"/>
+      <c r="R32" s="206"/>
+      <c r="S32" s="194"/>
+      <c r="T32" s="194"/>
+      <c r="U32" s="208"/>
+      <c r="V32" s="208"/>
+      <c r="W32" s="208"/>
+      <c r="X32" s="208"/>
+      <c r="Y32" s="208"/>
+      <c r="Z32" s="208"/>
+      <c r="AA32" s="208"/>
+      <c r="AB32" s="208"/>
+      <c r="AC32" s="208"/>
+      <c r="AD32" s="208"/>
+      <c r="AE32" s="208"/>
+      <c r="AF32" s="204"/>
     </row>
     <row r="33" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A33" s="172"/>
-      <c r="B33" s="175" t="s">
+      <c r="A33" s="212"/>
+      <c r="B33" s="220" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="166" t="str">
+      <c r="C33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="205" t="str">
         <f>E7</f>
         <v>스타트코딩</v>
       </c>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="167" t="s">
+      <c r="F33" s="201"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="L33" s="168" t="str">
+      <c r="L33" s="209" t="str">
         <f>L7</f>
         <v>스타트코딩</v>
       </c>
-      <c r="M33" s="115"/>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115"/>
-      <c r="P33" s="169" t="s">
+      <c r="M33" s="201"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="210" t="s">
         <v>60</v>
       </c>
-      <c r="Q33" s="145"/>
-      <c r="R33" s="170" t="s">
+      <c r="Q33" s="222"/>
+      <c r="R33" s="200" t="s">
         <v>58</v>
       </c>
-      <c r="S33" s="115"/>
-      <c r="T33" s="156"/>
-      <c r="U33" s="159" t="str">
+      <c r="S33" s="201"/>
+      <c r="T33" s="202"/>
+      <c r="U33" s="231" t="str">
         <f>U7</f>
         <v>콩쥐하이텍</v>
       </c>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="145"/>
-      <c r="AA33" s="160" t="s">
+      <c r="V33" s="105"/>
+      <c r="W33" s="105"/>
+      <c r="X33" s="105"/>
+      <c r="Y33" s="105"/>
+      <c r="Z33" s="222"/>
+      <c r="AA33" s="232" t="s">
         <v>59</v>
       </c>
-      <c r="AB33" s="161" t="str">
+      <c r="AB33" s="233" t="str">
         <f>AB7</f>
         <v>콩쥐</v>
       </c>
-      <c r="AC33" s="109"/>
-      <c r="AD33" s="109"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="162" t="s">
+      <c r="AC33" s="105"/>
+      <c r="AD33" s="105"/>
+      <c r="AE33" s="105"/>
+      <c r="AF33" s="234" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A34" s="172"/>
-      <c r="B34" s="150" t="s">
+      <c r="A34" s="212"/>
+      <c r="B34" s="235" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="149"/>
-      <c r="N34" s="149"/>
-      <c r="O34" s="149"/>
-      <c r="P34" s="152"/>
-      <c r="Q34" s="145"/>
-      <c r="R34" s="151" t="s">
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="194"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="206"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="194"/>
+      <c r="O34" s="194"/>
+      <c r="P34" s="195"/>
+      <c r="Q34" s="222"/>
+      <c r="R34" s="236" t="s">
         <v>61</v>
       </c>
-      <c r="S34" s="149"/>
-      <c r="T34" s="152"/>
-      <c r="U34" s="148"/>
-      <c r="V34" s="149"/>
-      <c r="W34" s="149"/>
-      <c r="X34" s="149"/>
-      <c r="Y34" s="149"/>
-      <c r="Z34" s="152"/>
-      <c r="AA34" s="143"/>
-      <c r="AB34" s="148"/>
-      <c r="AC34" s="149"/>
-      <c r="AD34" s="149"/>
-      <c r="AE34" s="149"/>
-      <c r="AF34" s="163"/>
+      <c r="S34" s="194"/>
+      <c r="T34" s="195"/>
+      <c r="U34" s="206"/>
+      <c r="V34" s="194"/>
+      <c r="W34" s="194"/>
+      <c r="X34" s="194"/>
+      <c r="Y34" s="194"/>
+      <c r="Z34" s="195"/>
+      <c r="AA34" s="208"/>
+      <c r="AB34" s="206"/>
+      <c r="AC34" s="194"/>
+      <c r="AD34" s="194"/>
+      <c r="AE34" s="194"/>
+      <c r="AF34" s="225"/>
     </row>
     <row r="35" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A35" s="172"/>
-      <c r="B35" s="170" t="s">
+      <c r="A35" s="212"/>
+      <c r="B35" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="115"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="176" t="str">
+      <c r="C35" s="201"/>
+      <c r="D35" s="202"/>
+      <c r="E35" s="221" t="str">
         <f>E9</f>
         <v>서울시  서초구 서초동 123</v>
       </c>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
-      <c r="L35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="145"/>
-      <c r="Q35" s="145"/>
-      <c r="R35" s="170" t="s">
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
+      <c r="L35" s="105"/>
+      <c r="M35" s="105"/>
+      <c r="N35" s="105"/>
+      <c r="O35" s="105"/>
+      <c r="P35" s="222"/>
+      <c r="Q35" s="222"/>
+      <c r="R35" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="S35" s="115"/>
-      <c r="T35" s="156"/>
-      <c r="U35" s="177" t="str">
+      <c r="S35" s="201"/>
+      <c r="T35" s="202"/>
+      <c r="U35" s="223" t="str">
         <f>U9</f>
         <v xml:space="preserve">서울시 강남구 삼성동 123 </v>
       </c>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-      <c r="Y35" s="115"/>
-      <c r="Z35" s="115"/>
-      <c r="AA35" s="115"/>
-      <c r="AB35" s="115"/>
-      <c r="AC35" s="115"/>
-      <c r="AD35" s="115"/>
-      <c r="AE35" s="115"/>
-      <c r="AF35" s="139"/>
+      <c r="V35" s="201"/>
+      <c r="W35" s="201"/>
+      <c r="X35" s="201"/>
+      <c r="Y35" s="201"/>
+      <c r="Z35" s="201"/>
+      <c r="AA35" s="201"/>
+      <c r="AB35" s="201"/>
+      <c r="AC35" s="201"/>
+      <c r="AD35" s="201"/>
+      <c r="AE35" s="201"/>
+      <c r="AF35" s="224"/>
     </row>
     <row r="36" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A36" s="172"/>
-      <c r="B36" s="174" t="s">
+      <c r="A36" s="212"/>
+      <c r="B36" s="216" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="149"/>
-      <c r="D36" s="152"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
-      <c r="N36" s="149"/>
-      <c r="O36" s="149"/>
-      <c r="P36" s="152"/>
-      <c r="Q36" s="145"/>
-      <c r="R36" s="174" t="s">
+      <c r="C36" s="194"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="194"/>
+      <c r="O36" s="194"/>
+      <c r="P36" s="195"/>
+      <c r="Q36" s="222"/>
+      <c r="R36" s="216" t="s">
         <v>63</v>
       </c>
-      <c r="S36" s="149"/>
-      <c r="T36" s="152"/>
-      <c r="U36" s="148"/>
-      <c r="V36" s="149"/>
-      <c r="W36" s="149"/>
-      <c r="X36" s="149"/>
-      <c r="Y36" s="149"/>
-      <c r="Z36" s="149"/>
-      <c r="AA36" s="149"/>
-      <c r="AB36" s="149"/>
-      <c r="AC36" s="149"/>
-      <c r="AD36" s="149"/>
-      <c r="AE36" s="149"/>
-      <c r="AF36" s="163"/>
+      <c r="S36" s="194"/>
+      <c r="T36" s="195"/>
+      <c r="U36" s="206"/>
+      <c r="V36" s="194"/>
+      <c r="W36" s="194"/>
+      <c r="X36" s="194"/>
+      <c r="Y36" s="194"/>
+      <c r="Z36" s="194"/>
+      <c r="AA36" s="194"/>
+      <c r="AB36" s="194"/>
+      <c r="AC36" s="194"/>
+      <c r="AD36" s="194"/>
+      <c r="AE36" s="194"/>
+      <c r="AF36" s="225"/>
     </row>
     <row r="37" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A37" s="172"/>
-      <c r="B37" s="157" t="s">
+      <c r="A37" s="212"/>
+      <c r="B37" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="155" t="str">
+      <c r="C37" s="201"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="226" t="str">
         <f>E11</f>
         <v>인터넷서비스</v>
       </c>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="156"/>
-      <c r="K37" s="153" t="s">
+      <c r="F37" s="201"/>
+      <c r="G37" s="201"/>
+      <c r="H37" s="201"/>
+      <c r="I37" s="201"/>
+      <c r="J37" s="202"/>
+      <c r="K37" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="L37" s="155" t="str">
+      <c r="L37" s="226" t="str">
         <f>L11</f>
         <v>온라인정보제공</v>
       </c>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="156"/>
-      <c r="Q37" s="145"/>
-      <c r="R37" s="157" t="s">
+      <c r="M37" s="201"/>
+      <c r="N37" s="201"/>
+      <c r="O37" s="201"/>
+      <c r="P37" s="202"/>
+      <c r="Q37" s="222"/>
+      <c r="R37" s="217" t="s">
         <v>64</v>
       </c>
-      <c r="S37" s="115"/>
-      <c r="T37" s="156"/>
-      <c r="U37" s="155" t="str">
+      <c r="S37" s="201"/>
+      <c r="T37" s="202"/>
+      <c r="U37" s="226" t="str">
         <f>U11</f>
         <v>제조</v>
       </c>
-      <c r="V37" s="115"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="115"/>
-      <c r="Y37" s="115"/>
-      <c r="Z37" s="156"/>
-      <c r="AA37" s="153" t="s">
+      <c r="V37" s="201"/>
+      <c r="W37" s="201"/>
+      <c r="X37" s="201"/>
+      <c r="Y37" s="201"/>
+      <c r="Z37" s="202"/>
+      <c r="AA37" s="227" t="s">
         <v>17</v>
       </c>
-      <c r="AB37" s="158" t="str">
+      <c r="AB37" s="229" t="str">
         <f>AB11</f>
         <v>부품제조</v>
       </c>
-      <c r="AC37" s="115"/>
-      <c r="AD37" s="115"/>
-      <c r="AE37" s="115"/>
-      <c r="AF37" s="139"/>
+      <c r="AC37" s="201"/>
+      <c r="AD37" s="201"/>
+      <c r="AE37" s="201"/>
+      <c r="AF37" s="224"/>
     </row>
     <row r="38" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A38" s="173"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="146"/>
-      <c r="K38" s="154"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="146"/>
-      <c r="Q38" s="146"/>
-      <c r="R38" s="116"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="146"/>
-      <c r="U38" s="116"/>
-      <c r="V38" s="117"/>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="146"/>
-      <c r="AA38" s="154"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="117"/>
-      <c r="AD38" s="117"/>
-      <c r="AE38" s="117"/>
-      <c r="AF38" s="120"/>
+      <c r="A38" s="213"/>
+      <c r="B38" s="218"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="219"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="219"/>
+      <c r="K38" s="228"/>
+      <c r="L38" s="218"/>
+      <c r="M38" s="189"/>
+      <c r="N38" s="189"/>
+      <c r="O38" s="189"/>
+      <c r="P38" s="219"/>
+      <c r="Q38" s="219"/>
+      <c r="R38" s="218"/>
+      <c r="S38" s="189"/>
+      <c r="T38" s="219"/>
+      <c r="U38" s="218"/>
+      <c r="V38" s="189"/>
+      <c r="W38" s="189"/>
+      <c r="X38" s="189"/>
+      <c r="Y38" s="189"/>
+      <c r="Z38" s="219"/>
+      <c r="AA38" s="228"/>
+      <c r="AB38" s="218"/>
+      <c r="AC38" s="189"/>
+      <c r="AD38" s="189"/>
+      <c r="AE38" s="189"/>
+      <c r="AF38" s="230"/>
     </row>
     <row r="39" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="238" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="133"/>
-      <c r="C39" s="133"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="132" t="s">
+      <c r="B39" s="197"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="239" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="133"/>
-      <c r="I39" s="133"/>
-      <c r="J39" s="133"/>
-      <c r="K39" s="133"/>
-      <c r="L39" s="133"/>
-      <c r="M39" s="133"/>
-      <c r="N39" s="133"/>
-      <c r="O39" s="133"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="134"/>
-      <c r="R39" s="132" t="s">
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
+      <c r="M39" s="197"/>
+      <c r="N39" s="197"/>
+      <c r="O39" s="197"/>
+      <c r="P39" s="197"/>
+      <c r="Q39" s="198"/>
+      <c r="R39" s="239" t="s">
         <v>92</v>
       </c>
-      <c r="S39" s="133"/>
-      <c r="T39" s="133"/>
-      <c r="U39" s="133"/>
-      <c r="V39" s="133"/>
-      <c r="W39" s="133"/>
-      <c r="X39" s="133"/>
-      <c r="Y39" s="133"/>
-      <c r="Z39" s="133"/>
-      <c r="AA39" s="134"/>
-      <c r="AB39" s="135" t="s">
+      <c r="S39" s="197"/>
+      <c r="T39" s="197"/>
+      <c r="U39" s="197"/>
+      <c r="V39" s="197"/>
+      <c r="W39" s="197"/>
+      <c r="X39" s="197"/>
+      <c r="Y39" s="197"/>
+      <c r="Z39" s="197"/>
+      <c r="AA39" s="198"/>
+      <c r="AB39" s="240" t="s">
         <v>93</v>
       </c>
-      <c r="AC39" s="133"/>
-      <c r="AD39" s="133"/>
-      <c r="AE39" s="133"/>
-      <c r="AF39" s="136"/>
+      <c r="AC39" s="197"/>
+      <c r="AD39" s="197"/>
+      <c r="AE39" s="197"/>
+      <c r="AF39" s="241"/>
     </row>
     <row r="40" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A40" s="110" t="s">
+      <c r="A40" s="242" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="112"/>
+      <c r="B40" s="243"/>
       <c r="C40" s="74" t="s">
         <v>70</v>
       </c>
       <c r="D40" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="112"/>
+      <c r="F40" s="243"/>
       <c r="G40" s="75" t="s">
         <v>73</v>
       </c>
@@ -5770,34 +5770,34 @@
       <c r="AA40" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="AB40" s="138">
+      <c r="AB40" s="245">
         <f>AB14</f>
         <v>0</v>
       </c>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="139"/>
-    </row>
-    <row r="41" spans="1:32" ht="20.149999999999999" customHeight="1">
-      <c r="A41" s="140">
+      <c r="AC40" s="201"/>
+      <c r="AD40" s="201"/>
+      <c r="AE40" s="201"/>
+      <c r="AF40" s="224"/>
+    </row>
+    <row r="41" spans="1:32" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="246">
         <f>A15</f>
-        <v>2023</v>
-      </c>
-      <c r="B41" s="123"/>
+        <v>2030</v>
+      </c>
+      <c r="B41" s="247"/>
       <c r="C41" s="76">
         <f>C15</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D41" s="76">
         <f>D15</f>
         <v>1</v>
       </c>
-      <c r="E41" s="141">
+      <c r="E41" s="248">
         <f>E15</f>
         <v>5</v>
       </c>
-      <c r="F41" s="123"/>
+      <c r="F41" s="247"/>
       <c r="G41" s="77" t="str">
         <f t="shared" ref="G41:AA41" si="1">G15</f>
         <v/>
@@ -5882,11 +5882,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="117"/>
-      <c r="AE41" s="117"/>
-      <c r="AF41" s="120"/>
+      <c r="AB41" s="218"/>
+      <c r="AC41" s="189"/>
+      <c r="AD41" s="189"/>
+      <c r="AE41" s="189"/>
+      <c r="AF41" s="230"/>
     </row>
     <row r="42" spans="1:32" ht="13.5" customHeight="1">
       <c r="A42" s="78" t="s">
@@ -5895,110 +5895,110 @@
       <c r="B42" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="239" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="132" t="s">
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="198"/>
+      <c r="I42" s="239" t="s">
         <v>25</v>
       </c>
-      <c r="J42" s="133"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="132" t="s">
+      <c r="J42" s="197"/>
+      <c r="K42" s="198"/>
+      <c r="L42" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="M42" s="133"/>
-      <c r="N42" s="134"/>
-      <c r="O42" s="132" t="s">
+      <c r="M42" s="197"/>
+      <c r="N42" s="198"/>
+      <c r="O42" s="239" t="s">
         <v>79</v>
       </c>
-      <c r="P42" s="133"/>
-      <c r="Q42" s="133"/>
-      <c r="R42" s="133"/>
-      <c r="S42" s="134"/>
-      <c r="T42" s="132" t="s">
+      <c r="P42" s="197"/>
+      <c r="Q42" s="197"/>
+      <c r="R42" s="197"/>
+      <c r="S42" s="198"/>
+      <c r="T42" s="239" t="s">
         <v>80</v>
       </c>
-      <c r="U42" s="133"/>
-      <c r="V42" s="133"/>
-      <c r="W42" s="133"/>
-      <c r="X42" s="133"/>
-      <c r="Y42" s="134"/>
-      <c r="Z42" s="132" t="s">
+      <c r="U42" s="197"/>
+      <c r="V42" s="197"/>
+      <c r="W42" s="197"/>
+      <c r="X42" s="197"/>
+      <c r="Y42" s="198"/>
+      <c r="Z42" s="239" t="s">
         <v>81</v>
       </c>
-      <c r="AA42" s="133"/>
-      <c r="AB42" s="133"/>
-      <c r="AC42" s="133"/>
-      <c r="AD42" s="134"/>
-      <c r="AE42" s="135" t="s">
+      <c r="AA42" s="197"/>
+      <c r="AB42" s="197"/>
+      <c r="AC42" s="197"/>
+      <c r="AD42" s="198"/>
+      <c r="AE42" s="240" t="s">
         <v>20</v>
       </c>
-      <c r="AF42" s="136"/>
-    </row>
-    <row r="43" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AF42" s="241"/>
+    </row>
+    <row r="43" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="80">
         <f t="shared" ref="A43:C45" si="2">A17</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43" s="81">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="C43" s="125" t="str">
+      <c r="C43" s="249" t="str">
         <f t="shared" si="2"/>
         <v>ERP 프로그램</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="112"/>
-      <c r="I43" s="126">
+      <c r="D43" s="250"/>
+      <c r="E43" s="250"/>
+      <c r="F43" s="250"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="243"/>
+      <c r="I43" s="251">
         <f>I17</f>
         <v>0</v>
       </c>
-      <c r="J43" s="111"/>
-      <c r="K43" s="112"/>
-      <c r="L43" s="127">
+      <c r="J43" s="250"/>
+      <c r="K43" s="243"/>
+      <c r="L43" s="252">
         <f>L17</f>
         <v>1</v>
       </c>
-      <c r="M43" s="111"/>
-      <c r="N43" s="112"/>
-      <c r="O43" s="128">
+      <c r="M43" s="250"/>
+      <c r="N43" s="243"/>
+      <c r="O43" s="253">
         <f>O17</f>
         <v>250000</v>
       </c>
-      <c r="P43" s="111"/>
-      <c r="Q43" s="111"/>
-      <c r="R43" s="111"/>
-      <c r="S43" s="112"/>
-      <c r="T43" s="128">
+      <c r="P43" s="250"/>
+      <c r="Q43" s="250"/>
+      <c r="R43" s="250"/>
+      <c r="S43" s="243"/>
+      <c r="T43" s="253">
         <f>T17</f>
         <v>250000</v>
       </c>
-      <c r="U43" s="111"/>
-      <c r="V43" s="111"/>
-      <c r="W43" s="111"/>
-      <c r="X43" s="111"/>
-      <c r="Y43" s="112"/>
-      <c r="Z43" s="128">
+      <c r="U43" s="250"/>
+      <c r="V43" s="250"/>
+      <c r="W43" s="250"/>
+      <c r="X43" s="250"/>
+      <c r="Y43" s="243"/>
+      <c r="Z43" s="253">
         <f>Z17</f>
         <v>25000</v>
       </c>
-      <c r="AA43" s="111"/>
-      <c r="AB43" s="111"/>
-      <c r="AC43" s="111"/>
-      <c r="AD43" s="112"/>
-      <c r="AE43" s="131"/>
-      <c r="AF43" s="130"/>
-    </row>
-    <row r="44" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA43" s="250"/>
+      <c r="AB43" s="250"/>
+      <c r="AC43" s="250"/>
+      <c r="AD43" s="243"/>
+      <c r="AE43" s="254"/>
+      <c r="AF43" s="255"/>
+    </row>
+    <row r="44" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6007,56 +6007,56 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C44" s="125" t="str">
+      <c r="C44" s="249" t="str">
         <f t="shared" si="2"/>
         <v>서버유지보수</v>
       </c>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="112"/>
-      <c r="I44" s="126">
+      <c r="D44" s="250"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="243"/>
+      <c r="I44" s="251">
         <f>I18</f>
         <v>0</v>
       </c>
-      <c r="J44" s="111"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="127">
+      <c r="J44" s="250"/>
+      <c r="K44" s="243"/>
+      <c r="L44" s="252">
         <f>L18</f>
         <v>1</v>
       </c>
-      <c r="M44" s="111"/>
-      <c r="N44" s="112"/>
-      <c r="O44" s="128">
+      <c r="M44" s="250"/>
+      <c r="N44" s="243"/>
+      <c r="O44" s="253">
         <f>O18</f>
         <v>100000</v>
       </c>
-      <c r="P44" s="111"/>
-      <c r="Q44" s="111"/>
-      <c r="R44" s="111"/>
-      <c r="S44" s="112"/>
-      <c r="T44" s="128">
+      <c r="P44" s="250"/>
+      <c r="Q44" s="250"/>
+      <c r="R44" s="250"/>
+      <c r="S44" s="243"/>
+      <c r="T44" s="253">
         <f>T18</f>
         <v>100000</v>
       </c>
-      <c r="U44" s="111"/>
-      <c r="V44" s="111"/>
-      <c r="W44" s="111"/>
-      <c r="X44" s="111"/>
-      <c r="Y44" s="112"/>
-      <c r="Z44" s="128">
+      <c r="U44" s="250"/>
+      <c r="V44" s="250"/>
+      <c r="W44" s="250"/>
+      <c r="X44" s="250"/>
+      <c r="Y44" s="243"/>
+      <c r="Z44" s="253">
         <f>Z18</f>
         <v>10000</v>
       </c>
-      <c r="AA44" s="111"/>
-      <c r="AB44" s="111"/>
-      <c r="AC44" s="111"/>
-      <c r="AD44" s="112"/>
-      <c r="AE44" s="131"/>
-      <c r="AF44" s="130"/>
-    </row>
-    <row r="45" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA44" s="250"/>
+      <c r="AB44" s="250"/>
+      <c r="AC44" s="250"/>
+      <c r="AD44" s="243"/>
+      <c r="AE44" s="254"/>
+      <c r="AF44" s="255"/>
+    </row>
+    <row r="45" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="80">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -6065,105 +6065,105 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C45" s="125">
+      <c r="C45" s="249">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="112"/>
-      <c r="I45" s="126">
+      <c r="D45" s="250"/>
+      <c r="E45" s="250"/>
+      <c r="F45" s="250"/>
+      <c r="G45" s="250"/>
+      <c r="H45" s="243"/>
+      <c r="I45" s="251">
         <f>I19</f>
         <v>0</v>
       </c>
-      <c r="J45" s="111"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="127">
+      <c r="J45" s="250"/>
+      <c r="K45" s="243"/>
+      <c r="L45" s="252">
         <f>L19</f>
         <v>0</v>
       </c>
-      <c r="M45" s="111"/>
-      <c r="N45" s="112"/>
-      <c r="O45" s="128">
+      <c r="M45" s="250"/>
+      <c r="N45" s="243"/>
+      <c r="O45" s="253">
         <f>O19</f>
         <v>0</v>
       </c>
-      <c r="P45" s="111"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="111"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="128">
+      <c r="P45" s="250"/>
+      <c r="Q45" s="250"/>
+      <c r="R45" s="250"/>
+      <c r="S45" s="243"/>
+      <c r="T45" s="253">
         <f>T19</f>
         <v>0</v>
       </c>
-      <c r="U45" s="111"/>
-      <c r="V45" s="111"/>
-      <c r="W45" s="111"/>
-      <c r="X45" s="111"/>
-      <c r="Y45" s="112"/>
-      <c r="Z45" s="128">
+      <c r="U45" s="250"/>
+      <c r="V45" s="250"/>
+      <c r="W45" s="250"/>
+      <c r="X45" s="250"/>
+      <c r="Y45" s="243"/>
+      <c r="Z45" s="253">
         <f>Z19</f>
         <v>0</v>
       </c>
-      <c r="AA45" s="111"/>
-      <c r="AB45" s="111"/>
-      <c r="AC45" s="111"/>
-      <c r="AD45" s="112"/>
-      <c r="AE45" s="131"/>
-      <c r="AF45" s="130"/>
-    </row>
-    <row r="46" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA45" s="250"/>
+      <c r="AB45" s="250"/>
+      <c r="AC45" s="250"/>
+      <c r="AD45" s="243"/>
+      <c r="AE45" s="254"/>
+      <c r="AF45" s="255"/>
+    </row>
+    <row r="46" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="80"/>
       <c r="B46" s="81"/>
-      <c r="C46" s="125">
+      <c r="C46" s="249">
         <f>C20</f>
         <v>0</v>
       </c>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="112"/>
-      <c r="I46" s="126"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="112"/>
-      <c r="L46" s="127">
+      <c r="D46" s="250"/>
+      <c r="E46" s="250"/>
+      <c r="F46" s="250"/>
+      <c r="G46" s="250"/>
+      <c r="H46" s="243"/>
+      <c r="I46" s="251"/>
+      <c r="J46" s="250"/>
+      <c r="K46" s="243"/>
+      <c r="L46" s="252">
         <f>L20</f>
         <v>0</v>
       </c>
-      <c r="M46" s="111"/>
-      <c r="N46" s="112"/>
-      <c r="O46" s="128">
+      <c r="M46" s="250"/>
+      <c r="N46" s="243"/>
+      <c r="O46" s="253">
         <f>O20</f>
         <v>0</v>
       </c>
-      <c r="P46" s="111"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="111"/>
-      <c r="S46" s="112"/>
-      <c r="T46" s="128">
+      <c r="P46" s="250"/>
+      <c r="Q46" s="250"/>
+      <c r="R46" s="250"/>
+      <c r="S46" s="243"/>
+      <c r="T46" s="253">
         <f>T20</f>
         <v>0</v>
       </c>
-      <c r="U46" s="111"/>
-      <c r="V46" s="111"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="111"/>
-      <c r="Y46" s="112"/>
-      <c r="Z46" s="128">
+      <c r="U46" s="250"/>
+      <c r="V46" s="250"/>
+      <c r="W46" s="250"/>
+      <c r="X46" s="250"/>
+      <c r="Y46" s="243"/>
+      <c r="Z46" s="253">
         <f>Z20</f>
         <v>0</v>
       </c>
-      <c r="AA46" s="111"/>
-      <c r="AB46" s="111"/>
-      <c r="AC46" s="111"/>
-      <c r="AD46" s="112"/>
-      <c r="AE46" s="129"/>
-      <c r="AF46" s="130"/>
-    </row>
-    <row r="47" spans="1:32" ht="20.149999999999999" customHeight="1">
+      <c r="AA46" s="250"/>
+      <c r="AB46" s="250"/>
+      <c r="AC46" s="250"/>
+      <c r="AD46" s="243"/>
+      <c r="AE46" s="256"/>
+      <c r="AF46" s="255"/>
+    </row>
+    <row r="47" spans="1:32" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="80">
         <f>A20</f>
         <v>0</v>
@@ -6172,156 +6172,156 @@
         <f>B20</f>
         <v>0</v>
       </c>
-      <c r="C47" s="125">
+      <c r="C47" s="249">
         <f>C21</f>
         <v>0</v>
       </c>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="112"/>
-      <c r="I47" s="126">
+      <c r="D47" s="250"/>
+      <c r="E47" s="250"/>
+      <c r="F47" s="250"/>
+      <c r="G47" s="250"/>
+      <c r="H47" s="243"/>
+      <c r="I47" s="251">
         <f>I20</f>
         <v>0</v>
       </c>
-      <c r="J47" s="111"/>
-      <c r="K47" s="112"/>
-      <c r="L47" s="127">
+      <c r="J47" s="250"/>
+      <c r="K47" s="243"/>
+      <c r="L47" s="252">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="M47" s="111"/>
-      <c r="N47" s="112"/>
-      <c r="O47" s="128">
+      <c r="M47" s="250"/>
+      <c r="N47" s="243"/>
+      <c r="O47" s="253">
         <f>O21</f>
         <v>0</v>
       </c>
-      <c r="P47" s="111"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="111"/>
-      <c r="S47" s="112"/>
-      <c r="T47" s="128">
+      <c r="P47" s="250"/>
+      <c r="Q47" s="250"/>
+      <c r="R47" s="250"/>
+      <c r="S47" s="243"/>
+      <c r="T47" s="253">
         <f>T21</f>
         <v>0</v>
       </c>
-      <c r="U47" s="111"/>
-      <c r="V47" s="111"/>
-      <c r="W47" s="111"/>
-      <c r="X47" s="111"/>
-      <c r="Y47" s="112"/>
-      <c r="Z47" s="128">
+      <c r="U47" s="250"/>
+      <c r="V47" s="250"/>
+      <c r="W47" s="250"/>
+      <c r="X47" s="250"/>
+      <c r="Y47" s="243"/>
+      <c r="Z47" s="253">
         <f>Z21</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="111"/>
-      <c r="AB47" s="111"/>
-      <c r="AC47" s="111"/>
-      <c r="AD47" s="112"/>
-      <c r="AE47" s="131"/>
-      <c r="AF47" s="130"/>
+      <c r="AA47" s="250"/>
+      <c r="AB47" s="250"/>
+      <c r="AC47" s="250"/>
+      <c r="AD47" s="243"/>
+      <c r="AE47" s="254"/>
+      <c r="AF47" s="255"/>
     </row>
     <row r="48" spans="1:32" ht="13.5" customHeight="1">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="242" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="113" t="s">
+      <c r="B48" s="250"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="250"/>
+      <c r="E48" s="243"/>
+      <c r="F48" s="244" t="s">
         <v>82</v>
       </c>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="112"/>
-      <c r="K48" s="113" t="s">
+      <c r="G48" s="250"/>
+      <c r="H48" s="250"/>
+      <c r="I48" s="250"/>
+      <c r="J48" s="243"/>
+      <c r="K48" s="244" t="s">
         <v>83</v>
       </c>
-      <c r="L48" s="111"/>
-      <c r="M48" s="111"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="113" t="s">
+      <c r="L48" s="250"/>
+      <c r="M48" s="250"/>
+      <c r="N48" s="250"/>
+      <c r="O48" s="243"/>
+      <c r="P48" s="244" t="s">
         <v>84</v>
       </c>
-      <c r="Q48" s="111"/>
-      <c r="R48" s="111"/>
-      <c r="S48" s="111"/>
-      <c r="T48" s="112"/>
-      <c r="U48" s="113" t="s">
+      <c r="Q48" s="250"/>
+      <c r="R48" s="250"/>
+      <c r="S48" s="250"/>
+      <c r="T48" s="243"/>
+      <c r="U48" s="244" t="s">
         <v>85</v>
       </c>
-      <c r="V48" s="111"/>
-      <c r="W48" s="111"/>
-      <c r="X48" s="111"/>
-      <c r="Y48" s="112"/>
-      <c r="Z48" s="114" t="s">
+      <c r="V48" s="250"/>
+      <c r="W48" s="250"/>
+      <c r="X48" s="250"/>
+      <c r="Y48" s="243"/>
+      <c r="Z48" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="AA48" s="115"/>
-      <c r="AB48" s="115"/>
-      <c r="AC48" s="115"/>
-      <c r="AD48" s="118" t="str">
+      <c r="AA48" s="201"/>
+      <c r="AB48" s="201"/>
+      <c r="AC48" s="201"/>
+      <c r="AD48" s="261" t="str">
         <f>IF(AG1=1,"영수","청구")</f>
         <v>영수</v>
       </c>
-      <c r="AE48" s="115"/>
-      <c r="AF48" s="119" t="s">
+      <c r="AE48" s="201"/>
+      <c r="AF48" s="262" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:32" ht="19.5" customHeight="1">
-      <c r="A49" s="121">
+      <c r="A49" s="263">
         <f>A23</f>
         <v>385000</v>
       </c>
-      <c r="B49" s="122"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="122"/>
-      <c r="H49" s="122"/>
-      <c r="I49" s="122"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="122"/>
-      <c r="M49" s="122"/>
-      <c r="N49" s="122"/>
-      <c r="O49" s="123"/>
-      <c r="P49" s="124"/>
-      <c r="Q49" s="122"/>
-      <c r="R49" s="122"/>
-      <c r="S49" s="122"/>
-      <c r="T49" s="123"/>
-      <c r="U49" s="124"/>
-      <c r="V49" s="122"/>
-      <c r="W49" s="122"/>
-      <c r="X49" s="122"/>
-      <c r="Y49" s="123"/>
-      <c r="Z49" s="116"/>
-      <c r="AA49" s="117"/>
-      <c r="AB49" s="117"/>
-      <c r="AC49" s="117"/>
-      <c r="AD49" s="117"/>
-      <c r="AE49" s="117"/>
-      <c r="AF49" s="120"/>
+      <c r="B49" s="264"/>
+      <c r="C49" s="264"/>
+      <c r="D49" s="264"/>
+      <c r="E49" s="247"/>
+      <c r="F49" s="265"/>
+      <c r="G49" s="264"/>
+      <c r="H49" s="264"/>
+      <c r="I49" s="264"/>
+      <c r="J49" s="247"/>
+      <c r="K49" s="265"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="264"/>
+      <c r="N49" s="264"/>
+      <c r="O49" s="247"/>
+      <c r="P49" s="265"/>
+      <c r="Q49" s="264"/>
+      <c r="R49" s="264"/>
+      <c r="S49" s="264"/>
+      <c r="T49" s="247"/>
+      <c r="U49" s="265"/>
+      <c r="V49" s="264"/>
+      <c r="W49" s="264"/>
+      <c r="X49" s="264"/>
+      <c r="Y49" s="247"/>
+      <c r="Z49" s="218"/>
+      <c r="AA49" s="189"/>
+      <c r="AB49" s="189"/>
+      <c r="AC49" s="189"/>
+      <c r="AD49" s="189"/>
+      <c r="AE49" s="189"/>
+      <c r="AF49" s="230"/>
     </row>
     <row r="50" spans="1:32" ht="15" customHeight="1">
-      <c r="A50" s="105" t="s">
+      <c r="A50" s="257" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="191"/>
+      <c r="D50" s="191"/>
+      <c r="E50" s="191"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
+      <c r="H50" s="191"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="191"/>
       <c r="K50" s="69"/>
       <c r="L50" s="69"/>
       <c r="M50" s="69"/>
@@ -6332,53 +6332,267 @@
       <c r="R50" s="69"/>
       <c r="S50" s="69"/>
       <c r="T50" s="69"/>
-      <c r="U50" s="107" t="s">
+      <c r="U50" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="V50" s="106"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="106"/>
-      <c r="Y50" s="106"/>
-      <c r="Z50" s="106"/>
-      <c r="AA50" s="106"/>
-      <c r="AB50" s="106"/>
-      <c r="AC50" s="106"/>
-      <c r="AD50" s="106"/>
-      <c r="AE50" s="106"/>
-      <c r="AF50" s="106"/>
+      <c r="V50" s="191"/>
+      <c r="W50" s="191"/>
+      <c r="X50" s="191"/>
+      <c r="Y50" s="191"/>
+      <c r="Z50" s="191"/>
+      <c r="AA50" s="191"/>
+      <c r="AB50" s="191"/>
+      <c r="AC50" s="191"/>
+      <c r="AD50" s="191"/>
+      <c r="AE50" s="191"/>
+      <c r="AF50" s="191"/>
     </row>
     <row r="51" spans="1:32" ht="13.5" customHeight="1">
-      <c r="O51" s="108"/>
-      <c r="P51" s="109"/>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="109"/>
-      <c r="W51" s="109"/>
-      <c r="X51" s="109"/>
-      <c r="Y51" s="109"/>
-      <c r="Z51" s="109"/>
-      <c r="AA51" s="109"/>
-      <c r="AB51" s="109"/>
-      <c r="AC51" s="109"/>
-      <c r="AD51" s="109"/>
-      <c r="AE51" s="109"/>
-      <c r="AF51" s="109"/>
+      <c r="O51" s="259"/>
+      <c r="P51" s="105"/>
+      <c r="Q51" s="105"/>
+      <c r="R51" s="105"/>
+      <c r="S51" s="105"/>
+      <c r="T51" s="105"/>
+      <c r="U51" s="105"/>
+      <c r="V51" s="105"/>
+      <c r="W51" s="105"/>
+      <c r="X51" s="105"/>
+      <c r="Y51" s="105"/>
+      <c r="Z51" s="105"/>
+      <c r="AA51" s="105"/>
+      <c r="AB51" s="105"/>
+      <c r="AC51" s="105"/>
+      <c r="AD51" s="105"/>
+      <c r="AE51" s="105"/>
+      <c r="AF51" s="105"/>
     </row>
     <row r="52" spans="1:32" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="256">
-    <mergeCell ref="A1:AF1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AF2"/>
-    <mergeCell ref="A3:V4"/>
-    <mergeCell ref="W3:Z3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="W4:Z4"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="U50:AF50"/>
+    <mergeCell ref="O51:AF51"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="K48:O48"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="U48:Y48"/>
+    <mergeCell ref="Z48:AC49"/>
+    <mergeCell ref="AD48:AE49"/>
+    <mergeCell ref="AF48:AF49"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="K49:O49"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="O46:S46"/>
+    <mergeCell ref="T46:Y46"/>
+    <mergeCell ref="Z46:AD46"/>
+    <mergeCell ref="AE46:AF46"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="L47:N47"/>
+    <mergeCell ref="O47:S47"/>
+    <mergeCell ref="T47:Y47"/>
+    <mergeCell ref="Z47:AD47"/>
+    <mergeCell ref="AE47:AF47"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="T44:Y44"/>
+    <mergeCell ref="Z44:AD44"/>
+    <mergeCell ref="AE44:AF44"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T45:Y45"/>
+    <mergeCell ref="Z45:AD45"/>
+    <mergeCell ref="AE45:AF45"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T42:Y42"/>
+    <mergeCell ref="Z42:AD42"/>
+    <mergeCell ref="AE42:AF42"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:Y43"/>
+    <mergeCell ref="Z43:AD43"/>
+    <mergeCell ref="AE43:AF43"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:Q39"/>
+    <mergeCell ref="R39:AA39"/>
+    <mergeCell ref="AB39:AF39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="AB40:AF41"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="AD31:AD32"/>
+    <mergeCell ref="AE31:AE32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="Q31:Q38"/>
+    <mergeCell ref="R31:T32"/>
+    <mergeCell ref="U31:U32"/>
+    <mergeCell ref="V31:V32"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="R34:T34"/>
+    <mergeCell ref="W31:W32"/>
+    <mergeCell ref="X31:X32"/>
+    <mergeCell ref="Y31:Y32"/>
+    <mergeCell ref="Z31:Z32"/>
+    <mergeCell ref="AA31:AA32"/>
+    <mergeCell ref="AB31:AB32"/>
+    <mergeCell ref="AC31:AC32"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:P38"/>
+    <mergeCell ref="R37:T38"/>
+    <mergeCell ref="U37:Z38"/>
+    <mergeCell ref="AA37:AA38"/>
+    <mergeCell ref="AB37:AF38"/>
+    <mergeCell ref="U33:Z34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AB33:AE34"/>
+    <mergeCell ref="AF33:AF34"/>
+    <mergeCell ref="AF31:AF32"/>
+    <mergeCell ref="E33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:O34"/>
+    <mergeCell ref="P33:P34"/>
+    <mergeCell ref="R33:T33"/>
+    <mergeCell ref="A31:A38"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E35:P36"/>
+    <mergeCell ref="R35:T35"/>
+    <mergeCell ref="U35:AF36"/>
+    <mergeCell ref="R36:T36"/>
+    <mergeCell ref="E37:J38"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="U24:AF24"/>
+    <mergeCell ref="P25:AF25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:V30"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="AA29:AB29"/>
+    <mergeCell ref="AD29:AE29"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="K22:O22"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="U22:Y22"/>
+    <mergeCell ref="Z22:AC23"/>
+    <mergeCell ref="AD22:AE23"/>
+    <mergeCell ref="AF22:AF23"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="U23:Y23"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="O20:S20"/>
+    <mergeCell ref="T20:Y20"/>
+    <mergeCell ref="Z20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:Y21"/>
+    <mergeCell ref="Z21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="T18:Y18"/>
+    <mergeCell ref="Z18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="L19:N19"/>
+    <mergeCell ref="O19:S19"/>
+    <mergeCell ref="T19:Y19"/>
+    <mergeCell ref="Z19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T16:Y16"/>
+    <mergeCell ref="Z16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T17:Y17"/>
+    <mergeCell ref="Z17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="AB13:AF13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="AB14:AF15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="AD5:AD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="R5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:P12"/>
+    <mergeCell ref="R11:T12"/>
+    <mergeCell ref="U11:Z12"/>
+    <mergeCell ref="AA11:AA12"/>
+    <mergeCell ref="AB11:AF12"/>
+    <mergeCell ref="U7:Z8"/>
+    <mergeCell ref="AA7:AA8"/>
+    <mergeCell ref="AB7:AE8"/>
+    <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="AF5:AF6"/>
     <mergeCell ref="E7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -6403,229 +6617,15 @@
     <mergeCell ref="U9:AF10"/>
     <mergeCell ref="R10:T10"/>
     <mergeCell ref="E11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:P12"/>
-    <mergeCell ref="R11:T12"/>
-    <mergeCell ref="U11:Z12"/>
-    <mergeCell ref="AA11:AA12"/>
-    <mergeCell ref="AB11:AF12"/>
-    <mergeCell ref="U7:Z8"/>
-    <mergeCell ref="AA7:AA8"/>
-    <mergeCell ref="AB7:AE8"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="W5:W6"/>
-    <mergeCell ref="X5:X6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AA5:AA6"/>
-    <mergeCell ref="AB5:AB6"/>
-    <mergeCell ref="AC5:AC6"/>
-    <mergeCell ref="AD5:AD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q12"/>
-    <mergeCell ref="R5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="AB13:AF13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="AB14:AF15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T16:Y16"/>
-    <mergeCell ref="Z16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T17:Y17"/>
-    <mergeCell ref="Z17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="T18:Y18"/>
-    <mergeCell ref="Z18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="L19:N19"/>
-    <mergeCell ref="O19:S19"/>
-    <mergeCell ref="T19:Y19"/>
-    <mergeCell ref="Z19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="O20:S20"/>
-    <mergeCell ref="T20:Y20"/>
-    <mergeCell ref="Z20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:Y21"/>
-    <mergeCell ref="Z21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="K22:O22"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="U22:Y22"/>
-    <mergeCell ref="Z22:AC23"/>
-    <mergeCell ref="AD22:AE23"/>
-    <mergeCell ref="AF22:AF23"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="K23:O23"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="U23:Y23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="U24:AF24"/>
-    <mergeCell ref="P25:AF25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:V30"/>
-    <mergeCell ref="W29:Z29"/>
-    <mergeCell ref="AA29:AB29"/>
-    <mergeCell ref="AD29:AE29"/>
-    <mergeCell ref="W30:Z30"/>
-    <mergeCell ref="AF31:AF32"/>
-    <mergeCell ref="E33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:O34"/>
-    <mergeCell ref="P33:P34"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="A31:A38"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E35:P36"/>
-    <mergeCell ref="R35:T35"/>
-    <mergeCell ref="U35:AF36"/>
-    <mergeCell ref="R36:T36"/>
-    <mergeCell ref="E37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:P38"/>
-    <mergeCell ref="R37:T38"/>
-    <mergeCell ref="U37:Z38"/>
-    <mergeCell ref="AA37:AA38"/>
-    <mergeCell ref="AB37:AF38"/>
-    <mergeCell ref="U33:Z34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AB33:AE34"/>
-    <mergeCell ref="AF33:AF34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="W31:W32"/>
-    <mergeCell ref="X31:X32"/>
-    <mergeCell ref="Y31:Y32"/>
-    <mergeCell ref="Z31:Z32"/>
-    <mergeCell ref="AA31:AA32"/>
-    <mergeCell ref="AB31:AB32"/>
-    <mergeCell ref="AC31:AC32"/>
-    <mergeCell ref="AD31:AD32"/>
-    <mergeCell ref="AE31:AE32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="Q31:Q38"/>
-    <mergeCell ref="R31:T32"/>
-    <mergeCell ref="U31:U32"/>
-    <mergeCell ref="V31:V32"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:Q39"/>
-    <mergeCell ref="R39:AA39"/>
-    <mergeCell ref="AB39:AF39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="AB40:AF41"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="O42:S42"/>
-    <mergeCell ref="T42:Y42"/>
-    <mergeCell ref="Z42:AD42"/>
-    <mergeCell ref="AE42:AF42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:S43"/>
-    <mergeCell ref="T43:Y43"/>
-    <mergeCell ref="Z43:AD43"/>
-    <mergeCell ref="AE43:AF43"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="O44:S44"/>
-    <mergeCell ref="T44:Y44"/>
-    <mergeCell ref="Z44:AD44"/>
-    <mergeCell ref="AE44:AF44"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="O45:S45"/>
-    <mergeCell ref="T45:Y45"/>
-    <mergeCell ref="Z45:AD45"/>
-    <mergeCell ref="AE45:AF45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="O46:S46"/>
-    <mergeCell ref="T46:Y46"/>
-    <mergeCell ref="Z46:AD46"/>
-    <mergeCell ref="AE46:AF46"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="L47:N47"/>
-    <mergeCell ref="O47:S47"/>
-    <mergeCell ref="T47:Y47"/>
-    <mergeCell ref="Z47:AD47"/>
-    <mergeCell ref="AE47:AF47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="U50:AF50"/>
-    <mergeCell ref="O51:AF51"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="K48:O48"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="U48:Y48"/>
-    <mergeCell ref="Z48:AC49"/>
-    <mergeCell ref="AD48:AE49"/>
-    <mergeCell ref="AF48:AF49"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="K49:O49"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="U49:Y49"/>
+    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AF2"/>
+    <mergeCell ref="A3:V4"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.43333333333333302" bottom="0.45" header="0.51180555555555496" footer="0.51180555555555496"/>
